--- a/Documentation/QA.xlsx
+++ b/Documentation/QA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nako8\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADAtanasov21\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FB86279-CFA0-4397-97D6-4BCE5938489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31548054-334F-400E-8032-84F108B4CF41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02476497-3A88-47A9-9FB5-7361632D0E0C}"/>
   </bookViews>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -234,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -254,6 +243,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -594,90 +586,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67AB630-70BB-4977-9930-C2EBC0EF7BFF}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="64.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="64.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="15">
         <v>44908</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -697,14 +689,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
@@ -715,77 +709,77 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="15">
         <v>44908</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
@@ -805,14 +799,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>2</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="9">
+        <v>2</v>
+      </c>
       <c r="D25" s="2" t="s">
         <v>22</v>
       </c>
@@ -823,77 +819,77 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="15">
         <v>44908</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>10</v>
       </c>
@@ -913,14 +909,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="1"/>
+      <c r="C41" s="9">
+        <v>3</v>
+      </c>
       <c r="D41" s="2" t="s">
         <v>27</v>
       </c>
@@ -933,6 +931,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A31:F32"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
     <mergeCell ref="A15:F16"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A4:D4"/>
@@ -942,21 +955,6 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A31:F32"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
